--- a/saidi_saifi/data/data_saifi.xlsx
+++ b/saidi_saifi/data/data_saifi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_12CCA7E3664D2949D101567DF8994E9C7C54DA99" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D491A38-58EA-46FD-A0B8-A3EB102361D3}"/>
   <bookViews>
-    <workbookView xWindow="236" yWindow="105" windowWidth="14806" windowHeight="8012"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +184,68 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -197,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,9 +299,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,19 +544,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -508,7 +570,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -522,7 +584,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -536,7 +598,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -550,7 +612,7 @@
         <v>61.06</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -560,7 +622,7 @@
         <v>72.09</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -570,7 +632,7 @@
         <v>47.15</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -584,7 +646,7 @@
         <v>30.92</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -598,7 +660,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -612,7 +674,7 @@
         <v>52.53</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -626,7 +688,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -640,7 +702,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -654,7 +716,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -668,7 +730,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -682,7 +744,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
@@ -696,7 +758,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
@@ -710,7 +772,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
@@ -724,7 +786,7 @@
         <v>15.59</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
@@ -738,7 +800,7 @@
         <v>12.57</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
@@ -752,7 +814,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
@@ -766,7 +828,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
@@ -780,7 +842,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
@@ -794,7 +856,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
@@ -808,7 +870,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
@@ -822,7 +884,7 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
@@ -836,7 +898,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
@@ -850,7 +912,7 @@
         <v>9.74</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
@@ -864,7 +926,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
@@ -878,7 +940,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
@@ -892,7 +954,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
@@ -907,6 +969,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C5:C31">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D31">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
